--- a/RPA_Meteo_Alert/Data/Users.xlsx
+++ b/RPA_Meteo_Alert/Data/Users.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultate\RPA\RPA-meteo-alarm\RPA_Meteo_Alert\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultate\RPA\RPA-meteo-alarm\RPA_Meteo_Alert\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78731851-F9F7-436B-8B08-60AE6785366E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6369903A-8A22-4030-A24A-BBED8A2E4319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="18300" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="16608" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Users" sheetId="1" r:id="rId1"/>
+    <sheet name="France" sheetId="4" r:id="rId1"/>
+    <sheet name="Italy" sheetId="3" r:id="rId2"/>
+    <sheet name="Germany" sheetId="2" r:id="rId3"/>
+    <sheet name="Users" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -67,6 +70,12 @@
   </si>
   <si>
     <t>Eure</t>
+  </si>
+  <si>
+    <t>Alert</t>
+  </si>
+  <si>
+    <t>Severity</t>
   </si>
 </sst>
 </file>
@@ -394,10 +403,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24854DAD-9418-469B-9712-8941958412AB}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8181D1B4-6C7D-4BDC-8EB3-149B9B020FB2}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB235E18-C73E-4429-8527-D4A376F426FC}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/RPA_Meteo_Alert/Data/Users.xlsx
+++ b/RPA_Meteo_Alert/Data/Users.xlsx
@@ -8,15 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultate\RPA\RPA-meteo-alarm\RPA_Meteo_Alert\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6369903A-8A22-4030-A24A-BBED8A2E4319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F5B2E6-C3FF-4F25-9C4F-8CBC24B5A9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="16608" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22356" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="France" sheetId="4" r:id="rId1"/>
-    <sheet name="Italy" sheetId="3" r:id="rId2"/>
-    <sheet name="Germany" sheetId="2" r:id="rId3"/>
-    <sheet name="Users" sheetId="1" r:id="rId4"/>
+    <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -70,12 +67,6 @@
   </si>
   <si>
     <t>Eure</t>
-  </si>
-  <si>
-    <t>Alert</t>
-  </si>
-  <si>
-    <t>Severity</t>
   </si>
 </sst>
 </file>
@@ -403,83 +394,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24854DAD-9418-469B-9712-8941958412AB}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8181D1B4-6C7D-4BDC-8EB3-149B9B020FB2}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB235E18-C73E-4429-8527-D4A376F426FC}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/RPA_Meteo_Alert/Data/Users.xlsx
+++ b/RPA_Meteo_Alert/Data/Users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultate\RPA\RPA-meteo-alarm\RPA_Meteo_Alert\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F5B2E6-C3FF-4F25-9C4F-8CBC24B5A9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AEEB09-BF3F-453A-888D-E822E8DE8389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22356" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -39,34 +39,37 @@
     <t>Region</t>
   </si>
   <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Sardegna</t>
+  </si>
+  <si>
+    <t>User3</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Eure</t>
+  </si>
+  <si>
     <t>stefan.macovei09@gmail.com</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>User1</t>
-  </si>
-  <si>
-    <t>User2</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Sardegna</t>
-  </si>
-  <si>
-    <t>User3</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Eure</t>
+    <t>stefan.macovei09</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,50 +426,48 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{DDF4E6C9-DA50-436D-AC6F-158204BAB76A}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{B11CB262-8DFC-453E-8263-642AF1869505}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{B11CB262-8DFC-453E-8263-642AF1869505}"/>
+    <hyperlink ref="B2" r:id="rId2" display="stefan.macovei09@gmail.co" xr:uid="{6FCD3194-56F3-41B7-AF90-894E2151FFF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
